--- a/data/trans_orig/P45C_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R2-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FB7D5E0-FF75-4DA8-BC2A-C835FC1C6025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{474DAAAB-500B-4484-968C-7B6D3BD518F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A40BED94-A2AF-4456-A894-426DCE512831}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3590FE38-370C-4D41-BA4D-6B733B3BAEF3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="612">
   <si>
     <t>Población con alguna quemadura solar en el último año en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -77,1515 +77,1539 @@
     <t>12,36%</t>
   </si>
   <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
   </si>
   <si>
     <t>14,65%</t>
   </si>
   <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
     <t>10,67%</t>
   </si>
   <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
   </si>
   <si>
     <t>10,57%</t>
   </si>
   <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
   </si>
   <si>
     <t>89,43%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>24,09%</t>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
   </si>
   <si>
     <t>20,06%</t>
   </si>
   <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
   </si>
   <si>
     <t>79,94%</t>
   </si>
   <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2015 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
     <t>90,71%</t>
   </si>
   <si>
@@ -1610,9 +1634,6 @@
     <t>5,48%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
     <t>9,33%</t>
   </si>
   <si>
@@ -1640,9 +1661,6 @@
     <t>90,67%</t>
   </si>
   <si>
-    <t>96,96%</t>
-  </si>
-  <si>
     <t>95,77%</t>
   </si>
   <si>
@@ -1832,9 +1850,6 @@
     <t>14,37%</t>
   </si>
   <si>
-    <t>14,96%</t>
-  </si>
-  <si>
     <t>13,81%</t>
   </si>
   <si>
@@ -1854,9 +1869,6 @@
   </si>
   <si>
     <t>88,42%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
   </si>
   <si>
     <t>84,08%</t>
@@ -2274,7 +2286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BEE6BD-D955-48A0-83FE-7F5E7A9E1365}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FFDDDD-CD18-4274-A1BE-B78A3AB1958E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2714,7 +2726,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -2723,13 +2735,13 @@
         <v>38281</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -2738,13 +2750,13 @@
         <v>78303</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,13 +2771,13 @@
         <v>278824</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>296</v>
@@ -2774,13 +2786,13 @@
         <v>297131</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>566</v>
@@ -2789,13 +2801,13 @@
         <v>575955</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,7 +2863,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2863,13 +2875,13 @@
         <v>81591</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -2878,13 +2890,13 @@
         <v>46918</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
@@ -2893,13 +2905,13 @@
         <v>128509</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,13 +2926,13 @@
         <v>277080</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>335</v>
@@ -2929,13 +2941,13 @@
         <v>324538</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>615</v>
@@ -2944,13 +2956,13 @@
         <v>601618</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,7 +3018,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3018,13 +3030,13 @@
         <v>11393</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -3033,13 +3045,13 @@
         <v>13474</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -3048,13 +3060,13 @@
         <v>24867</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3081,13 @@
         <v>191915</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>184</v>
@@ -3084,13 +3096,13 @@
         <v>194194</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>378</v>
@@ -3099,13 +3111,13 @@
         <v>386109</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,7 +3173,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3173,13 +3185,13 @@
         <v>69194</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -3188,13 +3200,13 @@
         <v>45743</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
@@ -3203,13 +3215,13 @@
         <v>114936</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3236,13 @@
         <v>201617</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>225</v>
@@ -3239,13 +3251,13 @@
         <v>232401</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>425</v>
@@ -3254,13 +3266,13 @@
         <v>434019</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,7 +3328,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3328,13 +3340,13 @@
         <v>80190</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>63</v>
@@ -3343,13 +3355,13 @@
         <v>62607</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>143</v>
@@ -3358,13 +3370,13 @@
         <v>142797</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,13 +3391,13 @@
         <v>534837</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>557</v>
@@ -3394,13 +3406,13 @@
         <v>574632</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>1075</v>
@@ -3409,13 +3421,13 @@
         <v>1109469</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3495,13 @@
         <v>78549</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -3534,10 +3546,10 @@
         <v>657567</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>153</v>
@@ -3653,13 +3665,13 @@
         <v>418942</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>927</v>
@@ -3668,13 +3680,13 @@
         <v>932409</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3701,13 @@
         <v>2755397</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>2868</v>
@@ -3704,13 +3716,13 @@
         <v>2952057</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>5568</v>
@@ -3719,13 +3731,13 @@
         <v>5707455</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,7 +3793,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3805,7 +3817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B39F649-DFDF-4A7F-A77C-379C53A9301F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686E2925-D0F2-4982-84B2-AE69093804CA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3822,7 +3834,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3927,39 +3939,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,39 +3984,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,39 +4029,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,13 +4078,13 @@
         <v>60279</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>49</v>
@@ -4081,13 +4093,13 @@
         <v>51000</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>108</v>
@@ -4096,13 +4108,13 @@
         <v>111279</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>17</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4129,13 @@
         <v>438178</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>421</v>
@@ -4132,13 +4144,13 @@
         <v>462330</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>827</v>
@@ -4147,13 +4159,13 @@
         <v>900508</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,13 +4233,13 @@
         <v>97595</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -4236,13 +4248,13 @@
         <v>56828</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>149</v>
@@ -4251,13 +4263,13 @@
         <v>154423</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,13 +4284,13 @@
         <v>225516</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>262</v>
@@ -4287,13 +4299,13 @@
         <v>281908</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>484</v>
@@ -4302,13 +4314,13 @@
         <v>507424</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,7 +4376,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4376,13 +4388,13 @@
         <v>99495</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>63</v>
@@ -4391,13 +4403,13 @@
         <v>69718</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>156</v>
@@ -4406,13 +4418,13 @@
         <v>169213</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,13 +4439,13 @@
         <v>563945</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>556</v>
@@ -4442,13 +4454,13 @@
         <v>597987</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>1084</v>
@@ -4457,13 +4469,13 @@
         <v>1161932</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,7 +4531,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4531,13 +4543,13 @@
         <v>22986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -4546,13 +4558,13 @@
         <v>24290</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -4561,13 +4573,13 @@
         <v>47276</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4594,13 @@
         <v>189632</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -4597,13 +4609,13 @@
         <v>194303</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M17" s="7">
         <v>360</v>
@@ -4612,10 +4624,10 @@
         <v>383935</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>24</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>248</v>
@@ -4674,7 +4686,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4829,7 +4841,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5229,7 +5241,7 @@
         <v>5416</v>
       </c>
       <c r="N29" s="7">
-        <v>5849880</v>
+        <v>5849879</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>318</v>
@@ -5280,7 +5292,7 @@
         <v>6447</v>
       </c>
       <c r="N30" s="7">
-        <v>6922475</v>
+        <v>6922474</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5294,7 +5306,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5318,7 +5330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFBE14B-2A4F-49A2-80C1-30E8CB7EA373}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11B77D6-DAF4-4225-8658-4685A21D2785}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5457,13 +5469,13 @@
         <v>41812</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>325</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>93</v>
@@ -5472,13 +5484,13 @@
         <v>99246</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,13 +5505,13 @@
         <v>236327</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H5" s="7">
         <v>234</v>
@@ -5508,13 +5520,13 @@
         <v>245981</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>334</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M5" s="7">
         <v>449</v>
@@ -5523,13 +5535,13 @@
         <v>482308</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,13 +5609,13 @@
         <v>63570</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H7" s="7">
         <v>75</v>
@@ -5612,13 +5624,13 @@
         <v>76264</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="M7" s="7">
         <v>137</v>
@@ -5627,13 +5639,13 @@
         <v>139833</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,13 +5660,13 @@
         <v>434808</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H8" s="7">
         <v>407</v>
@@ -5663,13 +5675,13 @@
         <v>444626</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M8" s="7">
         <v>816</v>
@@ -5678,10 +5690,10 @@
         <v>879435</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>353</v>
@@ -5767,13 +5779,13 @@
         <v>41397</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>290</v>
+        <v>357</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M10" s="7">
         <v>72</v>
@@ -5782,13 +5794,13 @@
         <v>70047</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5815,13 @@
         <v>286736</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H11" s="7">
         <v>286</v>
@@ -5818,13 +5830,13 @@
         <v>291675</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>298</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>589</v>
@@ -5833,13 +5845,13 @@
         <v>578411</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,7 +5907,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5907,13 +5919,13 @@
         <v>50669</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -5922,13 +5934,13 @@
         <v>43989</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>371</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="M13" s="7">
         <v>90</v>
@@ -5940,10 +5952,10 @@
         <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5970,13 @@
         <v>318329</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H14" s="7">
         <v>313</v>
@@ -5973,13 +5985,13 @@
         <v>341385</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>377</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
         <v>619</v>
@@ -5988,13 +6000,13 @@
         <v>659714</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,7 +6062,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6062,13 +6074,13 @@
         <v>7217</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6077,13 +6089,13 @@
         <v>827</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -6092,13 +6104,13 @@
         <v>8044</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6125,13 @@
         <v>204004</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>222</v>
@@ -6128,13 +6140,13 @@
         <v>217760</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>427</v>
@@ -6143,13 +6155,13 @@
         <v>421764</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,7 +6217,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6217,13 +6229,13 @@
         <v>6008</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -6232,13 +6244,13 @@
         <v>11033</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>232</v>
+        <v>405</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -6247,13 +6259,13 @@
         <v>17041</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,13 +6280,13 @@
         <v>256144</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H20" s="7">
         <v>251</v>
@@ -6283,13 +6295,13 @@
         <v>261070</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>242</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>503</v>
@@ -6298,13 +6310,13 @@
         <v>517214</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,7 +6372,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6372,13 +6384,13 @@
         <v>92646</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="H22" s="7">
         <v>107</v>
@@ -6387,13 +6399,13 @@
         <v>109643</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M22" s="7">
         <v>186</v>
@@ -6402,13 +6414,13 @@
         <v>202289</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>420</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,13 +6435,13 @@
         <v>551459</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="H23" s="7">
         <v>527</v>
@@ -6438,13 +6450,13 @@
         <v>567894</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="M23" s="7">
         <v>1017</v>
@@ -6453,13 +6465,13 @@
         <v>1119353</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>428</v>
+        <v>312</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,13 +6539,13 @@
         <v>146960</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>141</v>
@@ -6542,13 +6554,13 @@
         <v>152481</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>283</v>
@@ -6557,13 +6569,13 @@
         <v>299441</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,13 +6590,13 @@
         <v>624311</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>612</v>
@@ -6593,13 +6605,13 @@
         <v>670371</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>1213</v>
@@ -6608,13 +6620,13 @@
         <v>1294682</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,10 +6697,10 @@
         <v>306</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>310</v>
+        <v>453</v>
       </c>
       <c r="H28" s="7">
         <v>463</v>
@@ -6697,13 +6709,13 @@
         <v>477446</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="M28" s="7">
         <v>886</v>
@@ -6712,13 +6724,13 @@
         <v>930600</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>453</v>
+        <v>340</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,10 +6748,10 @@
         <v>315</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>320</v>
+        <v>459</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="H29" s="7">
         <v>2852</v>
@@ -6748,13 +6760,13 @@
         <v>3040762</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="M29" s="7">
         <v>5633</v>
@@ -6763,13 +6775,13 @@
         <v>5952880</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>421</v>
+        <v>465</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>459</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6825,7 +6837,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6849,7 +6861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483ADD06-DFBD-4A1F-8ABB-7CF1C339AF67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B503C1-C7FC-4189-9BCC-AC7DDB613015}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6866,7 +6878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6973,13 +6985,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6988,13 +7000,13 @@
         <v>497</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -7003,13 +7015,13 @@
         <v>497</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7024,10 +7036,10 @@
         <v>260298</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -7039,13 +7051,13 @@
         <v>270906</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M5" s="7">
         <v>868</v>
@@ -7054,13 +7066,13 @@
         <v>531203</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,13 +7140,13 @@
         <v>88873</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="H7" s="7">
         <v>103</v>
@@ -7143,13 +7155,13 @@
         <v>87127</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="M7" s="7">
         <v>159</v>
@@ -7158,13 +7170,13 @@
         <v>176000</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7179,13 +7191,13 @@
         <v>428968</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="H8" s="7">
         <v>613</v>
@@ -7194,13 +7206,13 @@
         <v>466789</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="M8" s="7">
         <v>938</v>
@@ -7209,13 +7221,13 @@
         <v>895758</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7283,13 +7295,13 @@
         <v>20002</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>492</v>
+        <v>357</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -7298,13 +7310,13 @@
         <v>28368</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>18</v>
+        <v>500</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -7313,13 +7325,13 @@
         <v>48370</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,13 +7346,13 @@
         <v>301605</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>499</v>
+        <v>366</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="H11" s="7">
         <v>506</v>
@@ -7349,13 +7361,13 @@
         <v>344916</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>29</v>
+        <v>507</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="M11" s="7">
         <v>844</v>
@@ -7364,13 +7376,13 @@
         <v>646521</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7426,7 +7438,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7438,13 +7450,13 @@
         <v>42911</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>33</v>
+        <v>514</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -7453,13 +7465,13 @@
         <v>45523</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="M13" s="7">
         <v>104</v>
@@ -7468,13 +7480,13 @@
         <v>88434</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7489,13 +7501,13 @@
         <v>277171</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>43</v>
+        <v>522</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="H14" s="7">
         <v>533</v>
@@ -7504,13 +7516,13 @@
         <v>383033</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="M14" s="7">
         <v>786</v>
@@ -7519,13 +7531,13 @@
         <v>660205</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7581,7 +7593,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7593,13 +7605,13 @@
         <v>10783</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>523</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -7608,13 +7620,13 @@
         <v>9781</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -7623,13 +7635,13 @@
         <v>20564</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7644,13 +7656,13 @@
         <v>185965</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>533</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>477</v>
@@ -7659,13 +7671,13 @@
         <v>221715</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="M17" s="7">
         <v>741</v>
@@ -7674,13 +7686,13 @@
         <v>407680</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7736,7 +7748,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7748,13 +7760,13 @@
         <v>62203</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="H19" s="7">
         <v>129</v>
@@ -7763,13 +7775,13 @@
         <v>80651</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="M19" s="7">
         <v>202</v>
@@ -7778,13 +7790,13 @@
         <v>142854</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,13 +7811,13 @@
         <v>214169</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="H20" s="7">
         <v>331</v>
@@ -7814,13 +7826,13 @@
         <v>194971</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="M20" s="7">
         <v>627</v>
@@ -7829,13 +7841,13 @@
         <v>409140</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7891,7 +7903,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7903,13 +7915,13 @@
         <v>84985</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="H22" s="7">
         <v>104</v>
@@ -7918,13 +7930,13 @@
         <v>91562</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="M22" s="7">
         <v>176</v>
@@ -7933,13 +7945,13 @@
         <v>176547</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7954,13 +7966,13 @@
         <v>540606</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="H23" s="7">
         <v>855</v>
@@ -7969,13 +7981,13 @@
         <v>712481</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="M23" s="7">
         <v>1380</v>
@@ -7984,13 +7996,13 @@
         <v>1253087</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8058,13 +8070,13 @@
         <v>263043</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="H25" s="7">
         <v>180</v>
@@ -8073,13 +8085,13 @@
         <v>157940</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="M25" s="7">
         <v>404</v>
@@ -8088,13 +8100,13 @@
         <v>420983</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8109,13 +8121,13 @@
         <v>596385</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="H26" s="7">
         <v>879</v>
@@ -8124,13 +8136,13 @@
         <v>708210</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="M26" s="7">
         <v>1417</v>
@@ -8139,13 +8151,13 @@
         <v>1304595</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8213,13 +8225,13 @@
         <v>572801</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="H28" s="7">
         <v>627</v>
@@ -8228,13 +8240,13 @@
         <v>501448</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="M28" s="7">
         <v>1126</v>
@@ -8243,13 +8255,13 @@
         <v>1074250</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>597</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8264,13 +8276,13 @@
         <v>2805166</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="H29" s="7">
         <v>4731</v>
@@ -8279,13 +8291,13 @@
         <v>3303022</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="M29" s="7">
         <v>7601</v>
@@ -8294,13 +8306,13 @@
         <v>6108188</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>605</v>
+        <v>176</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8356,7 +8368,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P45C_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{474DAAAB-500B-4484-968C-7B6D3BD518F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4522C83-A3A5-4A22-8713-E6B810E91BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3590FE38-370C-4D41-BA4D-6B733B3BAEF3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DEED3632-9C65-4D6B-979D-7A67944D44A8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="614">
   <si>
     <t>Población con alguna quemadura solar en el último año en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -77,1804 +77,1810 @@
     <t>12,36%</t>
   </si>
   <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
   </si>
   <si>
     <t>10,59%</t>
   </si>
   <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
   </si>
   <si>
     <t>89,41%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
   </si>
   <si>
     <t>14,96%</t>
   </si>
   <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
   </si>
   <si>
     <t>85,04%</t>
   </si>
   <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2016 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
   </si>
 </sst>
 </file>
@@ -2286,7 +2292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FFDDDD-CD18-4274-A1BE-B78A3AB1958E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC3B6A1-77AD-40AF-AD47-647E7EB0DF85}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2583,10 +2589,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>214</v>
@@ -2595,13 +2601,13 @@
         <v>219362</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,13 +2622,13 @@
         <v>374301</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>397</v>
@@ -2631,13 +2637,13 @@
         <v>403362</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="M8" s="7">
         <v>750</v>
@@ -2646,13 +2652,13 @@
         <v>777662</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,7 +2714,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2720,13 +2726,13 @@
         <v>40022</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -2735,13 +2741,13 @@
         <v>38281</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -2750,13 +2756,13 @@
         <v>78303</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2777,13 @@
         <v>278824</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>296</v>
@@ -2786,13 +2792,13 @@
         <v>297131</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>566</v>
@@ -2801,13 +2807,13 @@
         <v>575955</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,7 +2869,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2875,13 +2881,13 @@
         <v>81591</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -2890,13 +2896,13 @@
         <v>46918</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
@@ -2905,13 +2911,13 @@
         <v>128509</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2932,13 @@
         <v>277080</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>335</v>
@@ -2941,13 +2947,13 @@
         <v>324538</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>615</v>
@@ -2956,13 +2962,13 @@
         <v>601618</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,7 +3024,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3030,13 +3036,13 @@
         <v>11393</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -3045,13 +3051,13 @@
         <v>13474</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -3060,13 +3066,13 @@
         <v>24867</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3087,13 @@
         <v>191915</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>184</v>
@@ -3096,13 +3102,13 @@
         <v>194194</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>378</v>
@@ -3111,13 +3117,13 @@
         <v>386109</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,7 +3179,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3185,13 +3191,13 @@
         <v>69194</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -3200,13 +3206,13 @@
         <v>45743</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
@@ -3215,13 +3221,13 @@
         <v>114936</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3242,13 @@
         <v>201617</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>225</v>
@@ -3251,13 +3257,13 @@
         <v>232401</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>425</v>
@@ -3266,13 +3272,13 @@
         <v>434019</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,7 +3334,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3340,13 +3346,13 @@
         <v>80190</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>63</v>
@@ -3355,13 +3361,13 @@
         <v>62607</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>143</v>
@@ -3370,13 +3376,13 @@
         <v>142797</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3397,13 @@
         <v>534837</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>557</v>
@@ -3406,13 +3412,13 @@
         <v>574632</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>1075</v>
@@ -3421,13 +3427,13 @@
         <v>1109469</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,7 +3507,7 @@
         <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -3510,13 +3516,13 @@
         <v>73121</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>151</v>
@@ -3525,10 +3531,10 @@
         <v>151670</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>151</v>
@@ -3549,10 +3555,10 @@
         <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>668</v>
@@ -3561,13 +3567,13 @@
         <v>703172</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>1315</v>
@@ -3576,13 +3582,13 @@
         <v>1360739</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,7 +3823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686E2925-D0F2-4982-84B2-AE69093804CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B0C347-1511-4A23-B3D4-44D654382E1F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4096,10 +4102,10 @@
         <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>108</v>
@@ -4108,13 +4114,13 @@
         <v>111279</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4135,13 @@
         <v>438178</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>421</v>
@@ -4144,13 +4150,13 @@
         <v>462330</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>827</v>
@@ -4159,13 +4165,13 @@
         <v>900508</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,7 +4227,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4233,13 +4239,13 @@
         <v>97595</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -4248,13 +4254,13 @@
         <v>56828</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>149</v>
@@ -4263,13 +4269,13 @@
         <v>154423</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4290,13 @@
         <v>225516</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>262</v>
@@ -4299,13 +4305,13 @@
         <v>281908</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>484</v>
@@ -4314,13 +4320,13 @@
         <v>507424</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,7 +4382,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4388,13 +4394,13 @@
         <v>99495</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>63</v>
@@ -4403,13 +4409,13 @@
         <v>69718</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>156</v>
@@ -4418,13 +4424,13 @@
         <v>169213</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,13 +4445,13 @@
         <v>563945</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>556</v>
@@ -4454,13 +4460,13 @@
         <v>597987</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>1084</v>
@@ -4469,13 +4475,13 @@
         <v>1161932</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,7 +4537,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4543,13 +4549,13 @@
         <v>22986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>127</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -4558,13 +4564,13 @@
         <v>24290</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -4573,13 +4579,13 @@
         <v>47276</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4600,13 @@
         <v>189632</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>242</v>
+        <v>135</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -4609,13 +4615,13 @@
         <v>194303</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>360</v>
@@ -4624,13 +4630,13 @@
         <v>383935</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,7 +4692,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4698,13 +4704,13 @@
         <v>90247</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -4713,13 +4719,13 @@
         <v>64995</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>153</v>
@@ -4728,13 +4734,13 @@
         <v>155242</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4755,13 @@
         <v>181833</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>206</v>
@@ -4764,13 +4770,13 @@
         <v>215036</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>375</v>
@@ -4779,13 +4785,13 @@
         <v>396869</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,7 +4847,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4853,13 +4859,13 @@
         <v>169028</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>139</v>
@@ -4868,13 +4874,13 @@
         <v>148852</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>305</v>
@@ -4883,13 +4889,13 @@
         <v>317881</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4910,13 @@
         <v>490804</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>494</v>
@@ -4919,13 +4925,13 @@
         <v>541826</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>943</v>
@@ -4934,13 +4940,13 @@
         <v>1032629</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,13 +5014,13 @@
         <v>58275</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
@@ -5023,13 +5029,13 @@
         <v>59006</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M25" s="7">
         <v>113</v>
@@ -5038,13 +5044,13 @@
         <v>117281</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5065,13 @@
         <v>711235</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H26" s="7">
         <v>691</v>
@@ -5074,13 +5080,13 @@
         <v>755348</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>1343</v>
@@ -5089,13 +5095,13 @@
         <v>1466583</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5169,13 @@
         <v>597905</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>448</v>
@@ -5178,13 +5184,13 @@
         <v>474690</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>307</v>
+        <v>163</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M28" s="7">
         <v>1031</v>
@@ -5193,13 +5199,13 @@
         <v>1072595</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5220,13 @@
         <v>2801143</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H29" s="7">
         <v>2817</v>
@@ -5229,19 +5235,19 @@
         <v>3048737</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>5416</v>
       </c>
       <c r="N29" s="7">
-        <v>5849879</v>
+        <v>5849880</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>318</v>
@@ -5292,7 +5298,7 @@
         <v>6447</v>
       </c>
       <c r="N30" s="7">
-        <v>6922474</v>
+        <v>6922475</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5330,7 +5336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11B77D6-DAF4-4225-8658-4685A21D2785}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CB2C40-FFB8-45A2-9A37-3048075FA7B4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5630,7 +5636,7 @@
         <v>344</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>345</v>
       </c>
       <c r="M7" s="7">
         <v>137</v>
@@ -5639,13 +5645,13 @@
         <v>139833</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,13 +5666,13 @@
         <v>434808</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H8" s="7">
         <v>407</v>
@@ -5675,13 +5681,13 @@
         <v>444626</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>353</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M8" s="7">
         <v>816</v>
@@ -5690,13 +5696,13 @@
         <v>879435</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,7 +5758,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5764,13 +5770,13 @@
         <v>28650</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -5782,10 +5788,10 @@
         <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M10" s="7">
         <v>72</v>
@@ -5794,13 +5800,13 @@
         <v>70047</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,13 +5821,13 @@
         <v>286736</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H11" s="7">
         <v>286</v>
@@ -5833,10 +5839,10 @@
         <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M11" s="7">
         <v>589</v>
@@ -5845,13 +5851,13 @@
         <v>578411</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>27</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,7 +5913,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5919,13 +5925,13 @@
         <v>50669</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -5934,13 +5940,13 @@
         <v>43989</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>240</v>
+        <v>375</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M13" s="7">
         <v>90</v>
@@ -5949,13 +5955,13 @@
         <v>94658</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,13 +5976,13 @@
         <v>318329</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>313</v>
@@ -5985,13 +5991,13 @@
         <v>341385</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>383</v>
       </c>
       <c r="M14" s="7">
         <v>619</v>
@@ -6000,13 +6006,13 @@
         <v>659714</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,7 +6068,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6074,13 +6080,13 @@
         <v>7217</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6089,13 +6095,13 @@
         <v>827</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -6104,13 +6110,13 @@
         <v>8044</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6131,13 @@
         <v>204004</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>222</v>
@@ -6140,13 +6146,13 @@
         <v>217760</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>427</v>
@@ -6155,13 +6161,13 @@
         <v>421764</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,7 +6223,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6229,13 +6235,13 @@
         <v>6008</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -6244,13 +6250,13 @@
         <v>11033</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -6259,13 +6265,13 @@
         <v>17041</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6286,13 @@
         <v>256144</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>251</v>
@@ -6295,13 +6301,13 @@
         <v>261070</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M20" s="7">
         <v>503</v>
@@ -6310,13 +6316,13 @@
         <v>517214</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,7 +6378,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6384,13 +6390,13 @@
         <v>92646</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H22" s="7">
         <v>107</v>
@@ -6399,13 +6405,13 @@
         <v>109643</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>186</v>
@@ -6414,13 +6420,13 @@
         <v>202289</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>303</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,13 +6441,13 @@
         <v>551459</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="H23" s="7">
         <v>527</v>
@@ -6450,13 +6456,13 @@
         <v>567894</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="M23" s="7">
         <v>1017</v>
@@ -6465,13 +6471,13 @@
         <v>1119353</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>312</v>
+        <v>438</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,13 +6545,13 @@
         <v>146960</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>435</v>
+        <v>109</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="H25" s="7">
         <v>141</v>
@@ -6554,13 +6560,13 @@
         <v>152481</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="M25" s="7">
         <v>283</v>
@@ -6569,13 +6575,13 @@
         <v>299441</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6590,13 +6596,13 @@
         <v>624311</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>445</v>
+        <v>118</v>
       </c>
       <c r="H26" s="7">
         <v>612</v>
@@ -6605,13 +6611,13 @@
         <v>670371</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M26" s="7">
         <v>1213</v>
@@ -6620,13 +6626,13 @@
         <v>1294682</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6694,13 +6700,13 @@
         <v>453154</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>453</v>
+        <v>14</v>
       </c>
       <c r="H28" s="7">
         <v>463</v>
@@ -6709,13 +6715,13 @@
         <v>477446</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>455</v>
+        <v>163</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M28" s="7">
         <v>886</v>
@@ -6724,13 +6730,13 @@
         <v>930600</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,13 +6751,13 @@
         <v>2912118</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>459</v>
+        <v>24</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H29" s="7">
         <v>2852</v>
@@ -6760,13 +6766,13 @@
         <v>3040762</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>463</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>5633</v>
@@ -6781,7 +6787,7 @@
         <v>465</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6861,7 +6867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B503C1-C7FC-4189-9BCC-AC7DDB613015}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6475EE91-0925-4A16-B2EE-A66864D38890}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6985,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>467</v>
@@ -7003,7 +7009,7 @@
         <v>469</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>470</v>
@@ -7018,7 +7024,7 @@
         <v>471</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>472</v>
@@ -7036,7 +7042,7 @@
         <v>260298</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>473</v>
@@ -7057,7 +7063,7 @@
         <v>475</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M5" s="7">
         <v>868</v>
@@ -7072,7 +7078,7 @@
         <v>477</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7143,10 +7149,10 @@
         <v>478</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="H7" s="7">
         <v>103</v>
@@ -7155,13 +7161,13 @@
         <v>87127</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="M7" s="7">
         <v>159</v>
@@ -7170,13 +7176,13 @@
         <v>176000</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7191,28 +7197,28 @@
         <v>428968</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>489</v>
+        <v>177</v>
       </c>
       <c r="H8" s="7">
         <v>613</v>
       </c>
       <c r="I8" s="7">
-        <v>466789</v>
+        <v>466790</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="M8" s="7">
         <v>938</v>
@@ -7221,13 +7227,13 @@
         <v>895758</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>493</v>
+        <v>59</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,7 +7260,7 @@
         <v>716</v>
       </c>
       <c r="I9" s="7">
-        <v>553916</v>
+        <v>553917</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7283,7 +7289,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7295,13 +7301,13 @@
         <v>20002</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>357</v>
+        <v>494</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -7310,13 +7316,13 @@
         <v>28368</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>498</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -7325,13 +7331,13 @@
         <v>48370</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7346,13 +7352,13 @@
         <v>301605</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>366</v>
+        <v>501</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H11" s="7">
         <v>506</v>
@@ -7361,13 +7367,13 @@
         <v>344916</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>506</v>
+        <v>139</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M11" s="7">
         <v>844</v>
@@ -7376,13 +7382,13 @@
         <v>646521</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7438,7 +7444,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7450,13 +7456,13 @@
         <v>42911</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -7465,13 +7471,13 @@
         <v>45523</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="M13" s="7">
         <v>104</v>
@@ -7480,13 +7486,13 @@
         <v>88434</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,13 +7507,13 @@
         <v>277171</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H14" s="7">
         <v>533</v>
@@ -7516,13 +7522,13 @@
         <v>383033</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="M14" s="7">
         <v>786</v>
@@ -7531,13 +7537,13 @@
         <v>660205</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7593,7 +7599,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7605,13 +7611,13 @@
         <v>10783</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>527</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -7620,13 +7626,13 @@
         <v>9781</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -7635,13 +7641,13 @@
         <v>20564</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7656,13 +7662,13 @@
         <v>185965</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>537</v>
       </c>
       <c r="H17" s="7">
         <v>477</v>
@@ -7671,13 +7677,13 @@
         <v>221715</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="M17" s="7">
         <v>741</v>
@@ -7686,13 +7692,13 @@
         <v>407680</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,7 +7754,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7760,13 +7766,13 @@
         <v>62203</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="H19" s="7">
         <v>129</v>
@@ -7775,13 +7781,13 @@
         <v>80651</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="M19" s="7">
         <v>202</v>
@@ -7790,13 +7796,13 @@
         <v>142854</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7811,13 +7817,13 @@
         <v>214169</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>557</v>
       </c>
       <c r="H20" s="7">
         <v>331</v>
@@ -7826,13 +7832,13 @@
         <v>194971</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>560</v>
       </c>
       <c r="M20" s="7">
         <v>627</v>
@@ -7841,13 +7847,13 @@
         <v>409140</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,7 +7909,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7915,13 +7921,13 @@
         <v>84985</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>566</v>
       </c>
       <c r="H22" s="7">
         <v>104</v>
@@ -7930,13 +7936,13 @@
         <v>91562</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>569</v>
+        <v>458</v>
       </c>
       <c r="M22" s="7">
         <v>176</v>
@@ -7945,13 +7951,13 @@
         <v>176547</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>519</v>
+        <v>568</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7966,13 +7972,13 @@
         <v>540606</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="H23" s="7">
         <v>855</v>
@@ -7981,13 +7987,13 @@
         <v>712481</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>576</v>
+        <v>463</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="M23" s="7">
         <v>1380</v>
@@ -7996,13 +8002,13 @@
         <v>1253087</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>529</v>
+        <v>577</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8070,13 +8076,13 @@
         <v>263043</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>582</v>
       </c>
       <c r="H25" s="7">
         <v>180</v>
@@ -8085,13 +8091,13 @@
         <v>157940</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>585</v>
       </c>
       <c r="M25" s="7">
         <v>404</v>
@@ -8100,13 +8106,13 @@
         <v>420983</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8121,13 +8127,13 @@
         <v>596385</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>589</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>591</v>
       </c>
       <c r="H26" s="7">
         <v>879</v>
@@ -8136,13 +8142,13 @@
         <v>708210</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>594</v>
       </c>
       <c r="M26" s="7">
         <v>1417</v>
@@ -8151,13 +8157,13 @@
         <v>1304595</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8225,13 +8231,13 @@
         <v>572801</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>598</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H28" s="7">
         <v>627</v>
@@ -8240,13 +8246,13 @@
         <v>501448</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>602</v>
       </c>
       <c r="M28" s="7">
         <v>1126</v>
@@ -8255,7 +8261,7 @@
         <v>1074250</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>602</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>603</v>
@@ -8279,10 +8285,10 @@
         <v>605</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>446</v>
+        <v>606</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H29" s="7">
         <v>4731</v>
@@ -8291,13 +8297,13 @@
         <v>3303022</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M29" s="7">
         <v>7601</v>
@@ -8306,13 +8312,13 @@
         <v>6108188</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>176</v>
+        <v>611</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P45C_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4522C83-A3A5-4A22-8713-E6B810E91BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{022DE444-1FD2-49CD-BD12-9937E4E67322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DEED3632-9C65-4D6B-979D-7A67944D44A8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B6378A0C-F62F-412F-9FF0-8DF1C7C416C5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="617">
   <si>
     <t>Población con alguna quemadura solar en el último año en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -581,7 +581,52 @@
     <t>Población con alguna quemadura solar en el último año en 2012 (Tasa respuesta: 99,08%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
   </si>
   <si>
     <t>12,09%</t>
@@ -692,1195 +737,1159 @@
     <t>80,17%</t>
   </si>
   <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>Población con alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
     <t>15,0%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
   </si>
   <si>
     <t>85,0%</t>
   </si>
   <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2016 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>Población con alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
+    <t>87,98%</t>
   </si>
 </sst>
 </file>
@@ -2292,7 +2301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC3B6A1-77AD-40AF-AD47-647E7EB0DF85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7608C384-0BFE-405E-9135-BB6DE3E8F16E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3823,7 +3832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B0C347-1511-4A23-B3D4-44D654382E1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C523FF-2E12-413D-B635-B64BA3282399}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3941,43 +3950,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="D4" s="7">
+        <v>53979</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="I4" s="7">
+        <v>38291</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="N4" s="7">
+        <v>92269</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,43 +4001,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>231</v>
+      </c>
+      <c r="D5" s="7">
+        <v>240759</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>219</v>
+      </c>
+      <c r="I5" s="7">
+        <v>245706</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>450</v>
+      </c>
+      <c r="N5" s="7">
+        <v>486466</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,43 +4052,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>253</v>
+      </c>
+      <c r="I6" s="7">
+        <v>283997</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>535</v>
+      </c>
+      <c r="N6" s="7">
+        <v>578735</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,13 +4111,13 @@
         <v>60279</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="H7" s="7">
         <v>49</v>
@@ -4099,13 +4126,13 @@
         <v>51000</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="M7" s="7">
         <v>108</v>
@@ -4114,13 +4141,13 @@
         <v>111279</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4162,13 @@
         <v>438178</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>421</v>
@@ -4150,13 +4177,13 @@
         <v>462330</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>827</v>
@@ -4165,13 +4192,13 @@
         <v>900508</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,13 +4266,13 @@
         <v>97595</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -4254,13 +4281,13 @@
         <v>56828</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>149</v>
@@ -4269,13 +4296,13 @@
         <v>154423</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,13 +4317,13 @@
         <v>225516</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="H11" s="7">
         <v>262</v>
@@ -4305,13 +4332,13 @@
         <v>281908</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
         <v>484</v>
@@ -4320,13 +4347,13 @@
         <v>507424</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,49 +4415,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>99495</v>
+        <v>45517</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7">
-        <v>69718</v>
+        <v>31427</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="N13" s="7">
-        <v>169213</v>
+        <v>76944</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,49 +4466,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>528</v>
+        <v>297</v>
       </c>
       <c r="D14" s="7">
-        <v>563945</v>
+        <v>323185</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
-        <v>556</v>
+        <v>337</v>
       </c>
       <c r="I14" s="7">
-        <v>597987</v>
+        <v>352281</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="M14" s="7">
-        <v>1084</v>
+        <v>634</v>
       </c>
       <c r="N14" s="7">
-        <v>1161932</v>
+        <v>675466</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,10 +4517,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>621</v>
+        <v>339</v>
       </c>
       <c r="D15" s="7">
-        <v>663440</v>
+        <v>368702</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4505,10 +4532,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>619</v>
+        <v>366</v>
       </c>
       <c r="I15" s="7">
-        <v>667705</v>
+        <v>383708</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4520,10 +4547,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1240</v>
+        <v>705</v>
       </c>
       <c r="N15" s="7">
-        <v>1331145</v>
+        <v>752410</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4549,10 +4576,10 @@
         <v>22986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>127</v>
@@ -4564,13 +4591,13 @@
         <v>24290</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -4579,13 +4606,13 @@
         <v>47276</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,13 +4627,13 @@
         <v>189632</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>135</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -4615,13 +4642,13 @@
         <v>194303</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>360</v>
@@ -4630,13 +4657,13 @@
         <v>383935</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4731,13 @@
         <v>90247</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -4719,13 +4746,13 @@
         <v>64995</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="M19" s="7">
         <v>153</v>
@@ -4734,13 +4761,13 @@
         <v>155242</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,13 +4782,13 @@
         <v>181833</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="H20" s="7">
         <v>206</v>
@@ -4770,13 +4797,13 @@
         <v>215036</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>375</v>
@@ -4785,13 +4812,13 @@
         <v>396869</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4886,13 @@
         <v>169028</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="H22" s="7">
         <v>139</v>
@@ -4874,13 +4901,13 @@
         <v>148852</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="M22" s="7">
         <v>305</v>
@@ -4889,13 +4916,13 @@
         <v>317881</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4937,13 @@
         <v>490804</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="H23" s="7">
         <v>494</v>
@@ -4925,13 +4952,13 @@
         <v>541826</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="M23" s="7">
         <v>943</v>
@@ -4940,13 +4967,13 @@
         <v>1032629</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,13 +5041,13 @@
         <v>58275</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
@@ -5029,13 +5056,13 @@
         <v>59006</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="M25" s="7">
         <v>113</v>
@@ -5044,13 +5071,13 @@
         <v>117281</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5092,13 @@
         <v>711235</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="H26" s="7">
         <v>691</v>
@@ -5080,13 +5107,13 @@
         <v>755348</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="M26" s="7">
         <v>1343</v>
@@ -5095,13 +5122,13 @@
         <v>1466583</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5196,13 @@
         <v>597905</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="H28" s="7">
         <v>448</v>
@@ -5184,13 +5211,13 @@
         <v>474690</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>163</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="M28" s="7">
         <v>1031</v>
@@ -5199,13 +5226,13 @@
         <v>1072595</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,16 +5244,16 @@
         <v>2599</v>
       </c>
       <c r="D29" s="7">
-        <v>2801143</v>
+        <v>2801142</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="H29" s="7">
         <v>2817</v>
@@ -5235,10 +5262,10 @@
         <v>3048737</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>172</v>
@@ -5250,13 +5277,13 @@
         <v>5849880</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,7 +5295,7 @@
         <v>3182</v>
       </c>
       <c r="D30" s="7">
-        <v>3399048</v>
+        <v>3399047</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -5336,7 +5363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CB2C40-FFB8-45A2-9A37-3048075FA7B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8E1B52-736B-4594-B173-C41FE49DAD28}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5353,7 +5380,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5460,13 +5487,13 @@
         <v>57434</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -5475,13 +5502,13 @@
         <v>41812</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>93</v>
@@ -5490,13 +5517,13 @@
         <v>99246</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,13 +5538,13 @@
         <v>236327</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="H5" s="7">
         <v>234</v>
@@ -5526,13 +5553,13 @@
         <v>245981</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="M5" s="7">
         <v>449</v>
@@ -5541,13 +5568,13 @@
         <v>482308</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,13 +5642,13 @@
         <v>63570</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="H7" s="7">
         <v>75</v>
@@ -5630,13 +5657,13 @@
         <v>76264</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="M7" s="7">
         <v>137</v>
@@ -5645,13 +5672,13 @@
         <v>139833</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,13 +5693,13 @@
         <v>434808</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="H8" s="7">
         <v>407</v>
@@ -5681,13 +5708,13 @@
         <v>444626</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="M8" s="7">
         <v>816</v>
@@ -5696,13 +5723,13 @@
         <v>879435</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5797,13 @@
         <v>28650</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -5788,10 +5815,10 @@
         <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="M10" s="7">
         <v>72</v>
@@ -5800,10 +5827,10 @@
         <v>70047</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>17</v>
@@ -5821,13 +5848,13 @@
         <v>286736</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="H11" s="7">
         <v>286</v>
@@ -5839,10 +5866,10 @@
         <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="M11" s="7">
         <v>589</v>
@@ -5851,13 +5878,13 @@
         <v>578411</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,13 +5952,13 @@
         <v>50669</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -5943,10 +5970,10 @@
         <v>52</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="M13" s="7">
         <v>90</v>
@@ -5958,10 +5985,10 @@
         <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,13 +6003,13 @@
         <v>318329</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="H14" s="7">
         <v>313</v>
@@ -5994,10 +6021,10 @@
         <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="M14" s="7">
         <v>619</v>
@@ -6009,10 +6036,10 @@
         <v>58</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,13 +6107,13 @@
         <v>7217</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6095,13 +6122,13 @@
         <v>827</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -6110,13 +6137,13 @@
         <v>8044</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,13 +6158,13 @@
         <v>204004</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="H17" s="7">
         <v>222</v>
@@ -6146,13 +6173,13 @@
         <v>217760</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>427</v>
@@ -6161,13 +6188,13 @@
         <v>421764</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,13 +6262,13 @@
         <v>6008</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -6250,13 +6277,13 @@
         <v>11033</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -6265,13 +6292,13 @@
         <v>17041</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,13 +6313,13 @@
         <v>256144</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="H20" s="7">
         <v>251</v>
@@ -6301,13 +6328,13 @@
         <v>261070</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="M20" s="7">
         <v>503</v>
@@ -6316,13 +6343,13 @@
         <v>517214</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,13 +6417,13 @@
         <v>92646</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="H22" s="7">
         <v>107</v>
@@ -6405,13 +6432,13 @@
         <v>109643</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="M22" s="7">
         <v>186</v>
@@ -6420,13 +6447,13 @@
         <v>202289</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,13 +6468,13 @@
         <v>551459</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="H23" s="7">
         <v>527</v>
@@ -6456,13 +6483,13 @@
         <v>567894</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="M23" s="7">
         <v>1017</v>
@@ -6471,13 +6498,13 @@
         <v>1119353</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,13 +6572,13 @@
         <v>146960</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>109</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="H25" s="7">
         <v>141</v>
@@ -6560,13 +6587,13 @@
         <v>152481</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="M25" s="7">
         <v>283</v>
@@ -6575,13 +6602,13 @@
         <v>299441</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6596,10 +6623,10 @@
         <v>624311</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>118</v>
@@ -6611,13 +6638,13 @@
         <v>670371</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="M26" s="7">
         <v>1213</v>
@@ -6626,13 +6653,13 @@
         <v>1294682</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,10 +6727,10 @@
         <v>453154</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>14</v>
@@ -6715,13 +6742,13 @@
         <v>477446</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>163</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="M28" s="7">
         <v>886</v>
@@ -6730,13 +6757,13 @@
         <v>930600</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,13 +6778,13 @@
         <v>2912118</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="H29" s="7">
         <v>2852</v>
@@ -6766,10 +6793,10 @@
         <v>3040762</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>172</v>
@@ -6781,13 +6808,13 @@
         <v>5952880</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6867,7 +6894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6475EE91-0925-4A16-B2EE-A66864D38890}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7BCB1E-119A-4A07-A406-9C20181E09DF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6884,7 +6911,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6991,43 +7018,43 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7039,13 +7066,13 @@
         <v>331</v>
       </c>
       <c r="D5" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -7054,31 +7081,31 @@
         <v>537</v>
       </c>
       <c r="I5" s="7">
-        <v>270906</v>
+        <v>289122</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="M5" s="7">
         <v>868</v>
       </c>
       <c r="N5" s="7">
-        <v>531203</v>
+        <v>600564</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7090,7 +7117,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7105,7 +7132,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7120,7 +7147,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7143,46 +7170,46 @@
         <v>56</v>
       </c>
       <c r="D7" s="7">
-        <v>88873</v>
+        <v>90694</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>478</v>
+        <v>113</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>167</v>
+        <v>441</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="H7" s="7">
         <v>103</v>
       </c>
       <c r="I7" s="7">
-        <v>87127</v>
+        <v>81281</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="M7" s="7">
         <v>159</v>
       </c>
       <c r="N7" s="7">
-        <v>176000</v>
+        <v>171974</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>51</v>
+        <v>497</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,46 +7221,46 @@
         <v>325</v>
       </c>
       <c r="D8" s="7">
-        <v>428968</v>
+        <v>426284</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>485</v>
+        <v>123</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>177</v>
+        <v>451</v>
       </c>
       <c r="H8" s="7">
         <v>613</v>
       </c>
       <c r="I8" s="7">
-        <v>466790</v>
+        <v>433095</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="M8" s="7">
         <v>938</v>
       </c>
       <c r="N8" s="7">
-        <v>895758</v>
+        <v>859379</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>59</v>
+        <v>504</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7245,7 +7272,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>517841</v>
+        <v>516978</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7260,7 +7287,7 @@
         <v>716</v>
       </c>
       <c r="I9" s="7">
-        <v>553917</v>
+        <v>514376</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7275,7 +7302,7 @@
         <v>1097</v>
       </c>
       <c r="N9" s="7">
-        <v>1071758</v>
+        <v>1031353</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7298,46 +7325,46 @@
         <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>20002</v>
+        <v>19759</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
       </c>
       <c r="I10" s="7">
-        <v>28368</v>
+        <v>26793</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>129</v>
+        <v>510</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
       </c>
       <c r="N10" s="7">
-        <v>48370</v>
+        <v>46552</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,46 +7376,46 @@
         <v>338</v>
       </c>
       <c r="D11" s="7">
-        <v>301605</v>
+        <v>295692</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="H11" s="7">
         <v>506</v>
       </c>
       <c r="I11" s="7">
-        <v>344916</v>
+        <v>322335</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>139</v>
+        <v>519</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="M11" s="7">
         <v>844</v>
       </c>
       <c r="N11" s="7">
-        <v>646521</v>
+        <v>618027</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,7 +7427,7 @@
         <v>359</v>
       </c>
       <c r="D12" s="7">
-        <v>321607</v>
+        <v>315451</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7415,7 +7442,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7430,7 +7457,7 @@
         <v>895</v>
       </c>
       <c r="N12" s="7">
-        <v>694891</v>
+        <v>664579</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7453,46 +7480,46 @@
         <v>38</v>
       </c>
       <c r="D13" s="7">
-        <v>42911</v>
+        <v>45651</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
       </c>
       <c r="I13" s="7">
-        <v>45523</v>
+        <v>42571</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>513</v>
+        <v>232</v>
       </c>
       <c r="M13" s="7">
         <v>104</v>
       </c>
       <c r="N13" s="7">
-        <v>88434</v>
+        <v>88222</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>516</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7504,46 +7531,46 @@
         <v>253</v>
       </c>
       <c r="D14" s="7">
-        <v>277171</v>
+        <v>264562</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="H14" s="7">
         <v>533</v>
       </c>
       <c r="I14" s="7">
-        <v>383033</v>
+        <v>433147</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>521</v>
+        <v>241</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="M14" s="7">
         <v>786</v>
       </c>
       <c r="N14" s="7">
-        <v>660205</v>
+        <v>697709</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>524</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7555,7 +7582,7 @@
         <v>291</v>
       </c>
       <c r="D15" s="7">
-        <v>320082</v>
+        <v>310213</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7570,7 +7597,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7585,7 +7612,7 @@
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>748639</v>
+        <v>785931</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7608,46 +7635,46 @@
         <v>15</v>
       </c>
       <c r="D16" s="7">
-        <v>10783</v>
+        <v>9838</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
       </c>
       <c r="I16" s="7">
-        <v>9781</v>
+        <v>8614</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
       </c>
       <c r="N16" s="7">
-        <v>20564</v>
+        <v>18452</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7659,46 +7686,46 @@
         <v>264</v>
       </c>
       <c r="D17" s="7">
-        <v>185965</v>
+        <v>168904</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="H17" s="7">
         <v>477</v>
       </c>
       <c r="I17" s="7">
-        <v>221715</v>
+        <v>199660</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="M17" s="7">
         <v>741</v>
       </c>
       <c r="N17" s="7">
-        <v>407680</v>
+        <v>368564</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7710,7 +7737,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7725,7 +7752,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7740,7 +7767,7 @@
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7763,46 +7790,46 @@
         <v>73</v>
       </c>
       <c r="D19" s="7">
-        <v>62203</v>
+        <v>60279</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>545</v>
+        <v>184</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="H19" s="7">
         <v>129</v>
       </c>
       <c r="I19" s="7">
-        <v>80651</v>
+        <v>75354</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="M19" s="7">
         <v>202</v>
       </c>
       <c r="N19" s="7">
-        <v>142854</v>
+        <v>135633</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7814,46 +7841,46 @@
         <v>296</v>
       </c>
       <c r="D20" s="7">
-        <v>214169</v>
+        <v>208558</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>555</v>
+        <v>191</v>
       </c>
       <c r="H20" s="7">
         <v>331</v>
       </c>
       <c r="I20" s="7">
-        <v>194971</v>
+        <v>181702</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="M20" s="7">
         <v>627</v>
       </c>
       <c r="N20" s="7">
-        <v>409140</v>
+        <v>390260</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7865,7 +7892,7 @@
         <v>369</v>
       </c>
       <c r="D21" s="7">
-        <v>276372</v>
+        <v>268837</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7880,7 +7907,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7895,7 +7922,7 @@
         <v>829</v>
       </c>
       <c r="N21" s="7">
-        <v>551994</v>
+        <v>525893</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7918,46 +7945,46 @@
         <v>72</v>
       </c>
       <c r="D22" s="7">
-        <v>84985</v>
+        <v>84330</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>564</v>
+        <v>343</v>
       </c>
       <c r="H22" s="7">
         <v>104</v>
       </c>
       <c r="I22" s="7">
-        <v>91562</v>
+        <v>85055</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>458</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>176</v>
       </c>
       <c r="N22" s="7">
-        <v>176547</v>
+        <v>169384</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7969,46 +7996,46 @@
         <v>525</v>
       </c>
       <c r="D23" s="7">
-        <v>540606</v>
+        <v>537817</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>571</v>
+        <v>352</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="H23" s="7">
         <v>855</v>
       </c>
       <c r="I23" s="7">
-        <v>712481</v>
+        <v>764048</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>463</v>
+        <v>264</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="M23" s="7">
         <v>1380</v>
       </c>
       <c r="N23" s="7">
-        <v>1253087</v>
+        <v>1301865</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8020,7 +8047,7 @@
         <v>597</v>
       </c>
       <c r="D24" s="7">
-        <v>625591</v>
+        <v>622147</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8035,7 +8062,7 @@
         <v>959</v>
       </c>
       <c r="I24" s="7">
-        <v>804043</v>
+        <v>849103</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8050,7 +8077,7 @@
         <v>1556</v>
       </c>
       <c r="N24" s="7">
-        <v>1429634</v>
+        <v>1471249</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8073,46 +8100,46 @@
         <v>224</v>
       </c>
       <c r="D25" s="7">
-        <v>263043</v>
+        <v>221466</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>578</v>
+        <v>182</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>579</v>
+        <v>252</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="H25" s="7">
         <v>180</v>
       </c>
       <c r="I25" s="7">
-        <v>157940</v>
+        <v>130263</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="M25" s="7">
         <v>404</v>
       </c>
       <c r="N25" s="7">
-        <v>420983</v>
+        <v>351729</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8124,46 +8151,46 @@
         <v>538</v>
       </c>
       <c r="D26" s="7">
-        <v>596385</v>
+        <v>707254</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>587</v>
+        <v>189</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>589</v>
+        <v>260</v>
       </c>
       <c r="H26" s="7">
         <v>879</v>
       </c>
       <c r="I26" s="7">
-        <v>708210</v>
+        <v>585569</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="M26" s="7">
         <v>1417</v>
       </c>
       <c r="N26" s="7">
-        <v>1304595</v>
+        <v>1292824</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8175,7 +8202,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8190,7 +8217,7 @@
         <v>1059</v>
       </c>
       <c r="I27" s="7">
-        <v>866150</v>
+        <v>715832</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8205,7 +8232,7 @@
         <v>1821</v>
       </c>
       <c r="N27" s="7">
-        <v>1725578</v>
+        <v>1644553</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8228,46 +8255,46 @@
         <v>499</v>
       </c>
       <c r="D28" s="7">
-        <v>572801</v>
+        <v>532017</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>596</v>
+        <v>198</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="H28" s="7">
         <v>627</v>
       </c>
       <c r="I28" s="7">
-        <v>501448</v>
+        <v>450443</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="M28" s="7">
         <v>1126</v>
       </c>
       <c r="N28" s="7">
-        <v>1074250</v>
+        <v>982460</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8279,46 +8306,46 @@
         <v>2870</v>
       </c>
       <c r="D29" s="7">
-        <v>2805166</v>
+        <v>2920513</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>605</v>
+        <v>206</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="H29" s="7">
         <v>4731</v>
       </c>
       <c r="I29" s="7">
-        <v>3303022</v>
+        <v>3208677</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="M29" s="7">
         <v>7601</v>
       </c>
       <c r="N29" s="7">
-        <v>6108188</v>
+        <v>6129190</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8330,7 +8357,7 @@
         <v>3369</v>
       </c>
       <c r="D30" s="7">
-        <v>3377967</v>
+        <v>3452530</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8345,7 +8372,7 @@
         <v>5358</v>
       </c>
       <c r="I30" s="7">
-        <v>3804470</v>
+        <v>3659120</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8360,7 +8387,7 @@
         <v>8727</v>
       </c>
       <c r="N30" s="7">
-        <v>7182438</v>
+        <v>7111650</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P45C_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R2-Provincia-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año en 2007</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año en 2007</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3877,7 +3877,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año en 2012</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año en 2012</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7208,7 +7208,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año en 2016</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año en 2016</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -10539,7 +10539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año en 2023</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
